--- a/data/trans_camb/P08_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.792725655612915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.912667359907629</v>
+        <v>2.912667359907635</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>10.22350073612513</v>
@@ -664,7 +664,7 @@
         <v>8.286552546031107</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.472279415765723</v>
+        <v>1.472279415765729</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.541302433674471</v>
+        <v>-1.115728695391572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1647970915002585</v>
+        <v>0.5686416367767405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.064585589178232</v>
+        <v>-2.655604217741723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.938986046431267</v>
+        <v>2.986625416094391</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.942797251898577</v>
+        <v>2.865692877491264</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.004952629697636</v>
+        <v>-6.330617855034973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.557589123546137</v>
+        <v>2.605813897179573</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.637847877302701</v>
+        <v>3.424997737984321</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.557262579376044</v>
+        <v>-2.842204904552879</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.16570168150158</v>
+        <v>10.13918159400455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.92914398689829</v>
+        <v>12.54502359595783</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.746468090657702</v>
+        <v>8.74100590808005</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.89162759804886</v>
+        <v>17.81197981118261</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.48227792774886</v>
+        <v>17.20047437282568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.653805671613366</v>
+        <v>5.480352716089289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.92853039258869</v>
+        <v>12.07602705825971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.10291270101037</v>
+        <v>13.14905701597355</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.172552776621651</v>
+        <v>5.417319665659215</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.567675681513337</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2434148694332957</v>
+        <v>0.2434148694332962</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5569601028800101</v>
@@ -769,7 +769,7 @@
         <v>0.5492137508709795</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.09757931247900056</v>
+        <v>0.09757931247900094</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1329255847007197</v>
+        <v>-0.08504607472359661</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01212280310395856</v>
+        <v>0.02865979265873454</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2019827327169367</v>
+        <v>-0.1869687662637317</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1247929652211503</v>
+        <v>0.1265019491672582</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1388501657024251</v>
+        <v>0.1234702156132439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2703843019612986</v>
+        <v>-0.2735883316258287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.14369901943091</v>
+        <v>0.1400592969761978</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.211094818471721</v>
+        <v>0.1884163889837103</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1479049343958269</v>
+        <v>-0.1603811103939015</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.205715504298923</v>
+        <v>1.13541422589102</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.408698309550377</v>
+        <v>1.346461577443947</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8369468796382266</v>
+        <v>1.025847641924299</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.178498921928158</v>
+        <v>1.170572907232329</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.105225996558809</v>
+        <v>1.232509737146306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3878883628593841</v>
+        <v>0.3796458187897101</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9163615647330251</v>
+        <v>0.9244184367412785</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.030780944618766</v>
+        <v>1.015767095718847</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4027155845604953</v>
+        <v>0.4282785496667522</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.32891784019603</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.9111709844167731</v>
+        <v>-0.9111709844167787</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.843827964019269</v>
@@ -878,7 +878,7 @@
         <v>-1.716405633023579</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.499148096756939</v>
+        <v>1.499148096756941</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.704873773209385</v>
+        <v>-1.654512735238904</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.224220583903602</v>
+        <v>-4.258225468767379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.668441278082081</v>
+        <v>-0.6356932260126321</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.28481196145873</v>
+        <v>-2.020629560193402</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.534640612333346</v>
+        <v>-8.767035292410158</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.837662933211956</v>
+        <v>-5.526249716443303</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6620586401987913</v>
+        <v>-0.7704155008124607</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.150749628904057</v>
+        <v>-5.133984810187175</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.856965680541116</v>
+        <v>-1.562905933675316</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.037987294944386</v>
+        <v>7.427576880390873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.142755969785318</v>
+        <v>4.175944629063447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.733060541339345</v>
+        <v>8.385837243309691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.570129298106155</v>
+        <v>8.836553497746268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.048123315441571</v>
+        <v>1.723286705196462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.371747426013615</v>
+        <v>3.63382770497617</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.298019861241122</v>
+        <v>6.450113453392972</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.635582657469489</v>
+        <v>1.648767806352068</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.054602170154557</v>
+        <v>5.073041337852194</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1366199088695841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03739476395377133</v>
+        <v>-0.03739476395377156</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1549774719204772</v>
@@ -983,7 +983,7 @@
         <v>-0.09353737608660011</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.08169769233910348</v>
+        <v>0.08169769233910364</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1156118241869944</v>
+        <v>-0.1360287187006653</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3531072496221035</v>
+        <v>-0.2977901581952695</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05231409747026065</v>
+        <v>-0.05652162561821106</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09355657590460745</v>
+        <v>-0.07726718301430738</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.314214626798105</v>
+        <v>-0.3286382303364208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2156646056375917</v>
+        <v>-0.2009169577944661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03361780553022586</v>
+        <v>-0.03525675538778738</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.260632545403952</v>
+        <v>-0.2555083872792439</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09363152308390574</v>
+        <v>-0.07732540997417964</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7185957928650679</v>
+        <v>0.7266527253111243</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4137431501827068</v>
+        <v>0.4342507992875771</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8505190784352203</v>
+        <v>0.7906673537685047</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4352652161569093</v>
+        <v>0.4179872444401975</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1029284889351206</v>
+        <v>0.08461827198011349</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.213706143852911</v>
+        <v>0.1707205291867238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3822560720993166</v>
+        <v>0.3944020474345735</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09672835873580939</v>
+        <v>0.09638551302701283</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3034201831629411</v>
+        <v>0.3095183998997813</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.118331783269103</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.759380065846814</v>
+        <v>1.759380065846808</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.04699843498672</v>
+        <v>2.638094134264169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.288395999488289</v>
+        <v>1.326220885562119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.855323517917542</v>
+        <v>1.026320012166703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.128909300382825</v>
+        <v>-4.583312315313269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.29304044023249</v>
+        <v>-7.977340710985968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.283803515909128</v>
+        <v>-7.354712622569613</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3713068497452431</v>
+        <v>-0.0655595084585411</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.30517702841112</v>
+        <v>-1.858918741697832</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.626685642243481</v>
+        <v>-1.984825353234238</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.15237141630591</v>
+        <v>12.18132593143509</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.68114095511328</v>
+        <v>10.73348494337682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.680592453514709</v>
+        <v>9.76198730424032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.352224303915142</v>
+        <v>9.018263884285533</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.710134831346939</v>
+        <v>5.041424093813909</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.407299745423046</v>
+        <v>3.478783154148728</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.463910635500611</v>
+        <v>8.164074752369409</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.936101689573329</v>
+        <v>6.187613278727922</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.243953828395086</v>
+        <v>4.81061451738233</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.145192422839404</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1205895395958367</v>
+        <v>0.1205895395958363</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1895565015641192</v>
+        <v>0.2500506888800892</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09851057868647814</v>
+        <v>0.1118802867503814</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.06062643200109327</v>
+        <v>0.0770172048150787</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1775041449958736</v>
+        <v>-0.187943835902824</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3398098830483721</v>
+        <v>-0.3248125188907635</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2897908539768321</v>
+        <v>-0.2908799432100236</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01073279180222231</v>
+        <v>0.0003632620411143568</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1448148708337534</v>
+        <v>-0.1137644202084371</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09924558945882329</v>
+        <v>-0.1150904025040782</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.228128262831631</v>
+        <v>2.231190719133448</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.923555715721044</v>
+        <v>2.044291285398251</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.776770688097839</v>
+        <v>1.823852660037558</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4500699612397822</v>
+        <v>0.5111063753357792</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2622327576344251</v>
+        <v>0.2762923409403866</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1861959255197849</v>
+        <v>0.1950263410444932</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6604585225136692</v>
+        <v>0.6562152280033207</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4714047422462903</v>
+        <v>0.5044929130418488</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4247756307757729</v>
+        <v>0.382937400379401</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>5.406905278794206</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.135700774582933</v>
+        <v>5.135700774582927</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7118232986416797</v>
+        <v>0.2722275964093198</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.05253400968463738</v>
+        <v>0.459741839603345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.603487346693519</v>
+        <v>2.957998441352755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.95419725697978</v>
+        <v>3.822000516485038</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1059393982223636</v>
+        <v>-0.179269602007475</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.766943453253217</v>
+        <v>-3.622934551343437</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.834767400671023</v>
+        <v>3.607497456360202</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.63628070769441</v>
+        <v>1.762658021456414</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.362634072247453</v>
+        <v>1.134746417043634</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.55658386990639</v>
+        <v>10.31723737915561</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.763065630885537</v>
+        <v>9.750034288529767</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.48764621475536</v>
+        <v>14.36405049911258</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.23634456214852</v>
+        <v>16.61508040218681</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.40840729788339</v>
+        <v>11.76175817591079</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.953214929986136</v>
+        <v>6.973924899856465</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.01402990187391</v>
+        <v>11.63776276184963</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.328831722802917</v>
+        <v>9.497880756974451</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.842423429019492</v>
+        <v>8.898404966375526</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.362188451140429</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3440214712771356</v>
+        <v>0.3440214712771352</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05096651703905269</v>
+        <v>0.01206434043208154</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01589810307094222</v>
+        <v>0.03953539616396163</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2841697048185317</v>
+        <v>0.2559860592112244</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.166652713336874</v>
+        <v>0.1648280616398096</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0004299103876468449</v>
+        <v>-0.01447979479319034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1568762763070044</v>
+        <v>-0.1513786023957702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2203347552818787</v>
+        <v>0.215854584145788</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09943153424420265</v>
+        <v>0.09923063908361125</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0774372203258681</v>
+        <v>0.06919556867546127</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.455403144119418</v>
+        <v>1.448927293546461</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.384268966098315</v>
+        <v>1.420057239275058</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.010260631205325</v>
+        <v>1.987794037361794</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9312882474146614</v>
+        <v>0.9401098780738856</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7015371374100074</v>
+        <v>0.6556421896981536</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4081093744920241</v>
+        <v>0.4112160821205079</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9115550390354927</v>
+        <v>0.9058622047077565</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7204683438025359</v>
+        <v>0.7134529033552606</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6792047899382589</v>
+        <v>0.6968320189058416</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>5.203570213440602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.812673006807708</v>
+        <v>3.812673006807704</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>11.80587665760786</v>
@@ -1511,7 +1511,7 @@
         <v>5.555842077584009</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.211267475167989</v>
+        <v>6.211267475167986</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.41909748679961</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.325401429179502</v>
+        <v>3.081327064436115</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1682305119839538</v>
+        <v>-0.314698718176216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.329475736536531</v>
+        <v>-1.09921742900961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.855190400403451</v>
+        <v>3.721938046827569</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.97512674783291</v>
+        <v>-2.256328402996068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.09286388577956904</v>
+        <v>-0.6177930048044572</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.941487674584204</v>
+        <v>5.294139506373948</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7877281256276147</v>
+        <v>0.9338425020116652</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4892581812928932</v>
+        <v>1.261193340614674</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.87083185046504</v>
+        <v>15.41359297370073</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.26737427489423</v>
+        <v>10.66050198046647</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.467040426292526</v>
+        <v>8.644873165878074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21.04255283337038</v>
+        <v>20.16376884100479</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.75962966882502</v>
+        <v>12.74051881863784</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.22075017989953</v>
+        <v>12.00568580008339</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.26477908090939</v>
+        <v>15.43811245413584</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.24214751707435</v>
+        <v>11.21849022559822</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.099176654776439</v>
+        <v>9.037493557342016</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.6977571037017668</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5112489243866759</v>
+        <v>0.5112489243866754</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7062393049550838</v>
@@ -1616,7 +1616,7 @@
         <v>0.3323560088851699</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3715642092301506</v>
+        <v>0.3715642092301504</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8585163999660486</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3051570042216848</v>
+        <v>0.3103213601375204</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02882331620728331</v>
+        <v>-0.08179600285519957</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1320393193625672</v>
+        <v>-0.1321107390230181</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1852676324919643</v>
+        <v>0.1848672767497703</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1129653212528118</v>
+        <v>-0.1260736802318081</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.006691954705154554</v>
+        <v>-0.02833782698245944</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3483138237962208</v>
+        <v>0.3567737569890627</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05277228294196811</v>
+        <v>0.04651353401681974</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.03069262125765978</v>
+        <v>0.08485990973885192</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.095772330986029</v>
+        <v>3.204670593798553</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.365374954239323</v>
+        <v>2.074325251063103</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.680660694665139</v>
+        <v>1.735595912298514</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.550884953097648</v>
+        <v>1.589853721277521</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.06951356006331</v>
+        <v>0.9590814031935134</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.09857776640035</v>
+        <v>0.922179948281532</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.519021120804192</v>
+        <v>1.550999687620234</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.009744075561546</v>
+        <v>1.114313050629023</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9255130542478838</v>
+        <v>0.9629542951554777</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>5.981922065004314</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-8.360214183279947</v>
+        <v>-8.360214183279952</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.747383700713248</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.696420612960857</v>
+        <v>1.642769886412673</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.613778901872637</v>
+        <v>3.801772091782924</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.210863575886187</v>
+        <v>-5.370849064988805</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.387619414178135</v>
+        <v>-5.43127756931763</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.381663246898314</v>
+        <v>-1.951192741628415</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-14.27572087846307</v>
+        <v>-14.81092566653314</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.1514415649386514</v>
+        <v>-0.07689597281815923</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.917151322195608</v>
+        <v>3.160013403199224</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.826895583294595</v>
+        <v>-8.866130055664472</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.301560637558</v>
+        <v>14.07327127900019</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.17161848750748</v>
+        <v>16.29745336699493</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.700230034533398</v>
+        <v>4.39356399590626</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.325275075341153</v>
+        <v>9.827265135656669</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.40568161255353</v>
+        <v>13.40688335447713</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.291052578238369</v>
+        <v>-2.505264832187659</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.750940506125673</v>
+        <v>9.272275916951802</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>13.25293853033532</v>
+        <v>12.87095975308</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.5951457537300688</v>
+        <v>-1.046388569020035</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.23844276209858</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3332428172642127</v>
+        <v>-0.333242817264213</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2642212867084143</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1051555305536863</v>
+        <v>0.1001454735157612</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2760576774697714</v>
+        <v>0.2785526825076014</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3755021896890743</v>
+        <v>-0.3952523364443882</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1870521326965795</v>
+        <v>-0.1947097509922827</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05054406599952439</v>
+        <v>-0.0779271359299912</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4917837915673555</v>
+        <v>-0.4996175424618672</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.007133332201820208</v>
+        <v>-0.004342371852198795</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1392923676888106</v>
+        <v>0.1485306048018739</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4231489707539242</v>
+        <v>-0.4257179522979294</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.613361068178085</v>
+        <v>1.82205153208302</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.062119429518523</v>
+        <v>1.914940142365304</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4757806498387019</v>
+        <v>0.5896745715399884</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4300305453679807</v>
+        <v>0.472890041783757</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.636519138910885</v>
+        <v>0.614091980867038</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1052229618264661</v>
+        <v>-0.1244891966950914</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6228743713471715</v>
+        <v>0.5785420315745523</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8451477203402679</v>
+        <v>0.8075197966618568</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.03960874842011064</v>
+        <v>-0.06840743069476247</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-0.01497269507976517</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.19293769463786</v>
+        <v>3.192937694637857</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.125200175566982</v>
@@ -1948,7 +1948,7 @@
         <v>0.5931398741529703</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.720145687089288</v>
+        <v>3.720145687089293</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.848889779345853</v>
+        <v>-3.708154324755579</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.607714369161096</v>
+        <v>-2.456448880535125</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.510689103632408</v>
+        <v>0.460107005132564</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.494963147576977</v>
+        <v>-2.187800386647616</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.697548115678341</v>
+        <v>-4.479191046285525</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.233666359565874</v>
+        <v>-1.418800358025743</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.669633474634117</v>
+        <v>-1.888934599733942</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.232109090874614</v>
+        <v>-2.696817965667105</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.8330325281213089</v>
+        <v>0.5388210485039114</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.733713281730775</v>
+        <v>3.938593478863244</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.08213772517647</v>
+        <v>5.396547788615782</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.997677842435665</v>
+        <v>8.443040654887611</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.928501183132707</v>
+        <v>6.802883380111421</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.43211300063213</v>
+        <v>4.564710719361606</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.145174539236203</v>
+        <v>7.038141071885549</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.18897851790156</v>
+        <v>4.075014948924058</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.412200169614742</v>
+        <v>3.463894205600658</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.523877663334765</v>
+        <v>6.36007599821624</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.0007018101701726019</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1496615094935504</v>
+        <v>0.1496615094935503</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.06661709535601852</v>
@@ -2053,7 +2053,7 @@
         <v>0.03511664538800374</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2202499656118792</v>
+        <v>0.2202499656118795</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2621924695232405</v>
+        <v>-0.2667026801883325</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.185030619977622</v>
+        <v>-0.1765449513525165</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.02750297190011024</v>
+        <v>0.0252698944540305</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1062730576300658</v>
+        <v>-0.09807140601579986</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2023644875129809</v>
+        <v>-0.1891657257643434</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.04832249373133685</v>
+        <v>-0.06016871061868115</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09379329799882749</v>
+        <v>-0.1048413728628203</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1273933483783042</v>
+        <v>-0.1451542691238714</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.04441719359573602</v>
+        <v>0.02887961771117061</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3510009690052929</v>
+        <v>0.4016512252564032</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4923130645845661</v>
+        <v>0.5251179279726703</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7629479416718626</v>
+        <v>0.804381056261506</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3604345820377524</v>
+        <v>0.3621385761667872</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2345206496956138</v>
+        <v>0.2323892512167101</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3830664173414857</v>
+        <v>0.3732877190642082</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2675560229146619</v>
+        <v>0.2635736353365202</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2178555830029325</v>
+        <v>0.2256234825636317</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4206248945855794</v>
+        <v>0.4071072428858607</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-1.423199062242547</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.721502095805625</v>
+        <v>2.721502095805628</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.6725396415780238</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.351828747211384</v>
+        <v>-2.299966518324452</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.8355762480337</v>
+        <v>-4.40793045882918</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.63350189490259</v>
+        <v>-3.469288055629309</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.713359803452017</v>
+        <v>-4.052232472928684</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.436096085130805</v>
+        <v>-5.662152217870737</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.186923533986552</v>
+        <v>-1.15692608131501</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.097250360540068</v>
+        <v>-2.256134462924225</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.058704377149764</v>
+        <v>-4.202690895859411</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.425646685551702</v>
+        <v>-1.700473066365391</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.993253483348943</v>
+        <v>4.694045203000323</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.01540566417673</v>
+        <v>1.640013695763618</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.060061480554723</v>
+        <v>3.017111385270989</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.56047247937423</v>
+        <v>4.330565602552149</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.697434989411014</v>
+        <v>2.370709372949027</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.300099049776082</v>
+        <v>6.532024416564528</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.582847283461443</v>
+        <v>3.4228120408563</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.298692351743715</v>
+        <v>1.356289907151989</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.894067302448896</v>
+        <v>3.704629980143303</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.06761951992329525</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.129304937075103</v>
+        <v>0.1293049370751032</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.03925951207447948</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1636211217829196</v>
+        <v>-0.1600695390355427</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3166314715826857</v>
+        <v>-0.3137982745022564</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2396639882307526</v>
+        <v>-0.2383083870869683</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1619465804500849</v>
+        <v>-0.1760050154317656</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2397852562624189</v>
+        <v>-0.248160543647481</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.05039565571929788</v>
+        <v>-0.04828056106183769</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.113585346178021</v>
+        <v>-0.1195240313644948</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2158796020962373</v>
+        <v>-0.2239206403460655</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.07521383310486297</v>
+        <v>-0.08988396975170318</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4417948972527974</v>
+        <v>0.411999885819599</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1835877779825527</v>
+        <v>0.1416099017802397</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2736777361380477</v>
+        <v>0.263755222327747</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.243565763224614</v>
+        <v>0.2250173305369705</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1441520097307351</v>
+        <v>0.1264146697396459</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3384897556030024</v>
+        <v>0.3405552629845314</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2341121733914921</v>
+        <v>0.2168456113641989</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.08299244304650172</v>
+        <v>0.09170838388112922</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2489488270603502</v>
+        <v>0.2392141935127878</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>1.964237871436852</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.098392847009869</v>
+        <v>2.098392847009872</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.870614298207875</v>
+        <v>1.793635508313365</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.218213653834329</v>
+        <v>1.164952044554186</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.687140932846958</v>
+        <v>1.801746153669706</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.88622361084698</v>
+        <v>1.814228962641038</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.7361144692326881</v>
+        <v>-0.9185335828231422</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.034572741684766</v>
+        <v>-1.044629077327845</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.290125045893292</v>
+        <v>2.380184458490433</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.5403870411976334</v>
+        <v>0.6807015615886041</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.8447028919517883</v>
+        <v>0.9119493732875693</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.174611289620758</v>
+        <v>5.01427164282117</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.309751634230318</v>
+        <v>4.274384271709356</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.933363706558758</v>
+        <v>4.802916268836486</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.921663222715384</v>
+        <v>5.977092799030235</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.188523212162721</v>
+        <v>3.122258084761795</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.588186921019503</v>
+        <v>2.565124255643592</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.970261172936837</v>
+        <v>5.037992747903049</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.322880320113598</v>
+        <v>3.300435518600342</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.28630659688373</v>
+        <v>3.391439864316149</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1199642633348291</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.1281576716034245</v>
+        <v>0.1281576716034247</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1506401880637139</v>
+        <v>0.1509450971684382</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.09906521886930665</v>
+        <v>0.09751931337590304</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1409339484045917</v>
+        <v>0.1544434201945024</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.08584623878173687</v>
+        <v>0.08123778695158021</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.03301091623800949</v>
+        <v>-0.04026690042005058</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.04325342672296761</v>
+        <v>-0.04632630423430335</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1356700326909001</v>
+        <v>0.1411654712682568</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.0320343170668911</v>
+        <v>0.03878054939056728</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.04932899271490436</v>
+        <v>0.05369474429209225</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4932682181971345</v>
+        <v>0.4855687823783348</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4105694694037749</v>
+        <v>0.4102303557871918</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4747565233429919</v>
+        <v>0.470507628643606</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2926188685155316</v>
+        <v>0.2944334747410315</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1578506591713225</v>
+        <v>0.1535068809012028</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1270911138986057</v>
+        <v>0.1252753436092086</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3158062316598143</v>
+        <v>0.322721342908199</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.210319851802545</v>
+        <v>0.2063582558315963</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2074996697851625</v>
+        <v>0.2144777363270101</v>
       </c>
     </row>
     <row r="58">
